--- a/Pull Request Here/Blood Animations - 3228047321/Blood Animations - 3228047321.xlsx
+++ b/Pull Request Here/Blood Animations - 3228047321/Blood Animations - 3228047321.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\Blood Animations - 3228047321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F40B127-18D3-4566-BE96-63716870DBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2964759-1D66-4906-86C2-CB701808C695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,10 +145,6 @@
     <t>Keyed+BloodAnimations_GroundImpactToggle</t>
   </si>
   <si>
-    <t>(청소필요) 청소가 필요한 탄피 생성 활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Enable filth left by bullets (Chance for gunfire to leave bullet casing filth that require colonists to clean up)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -172,26 +168,14 @@
     <t>Keyed+BloodAnimations_BulletCasingToggle</t>
   </si>
   <si>
-    <t>(청소필요) 청소가 필요한 오물로 전환되는 비율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Filth left by particles (Percentage of particles that leave blood/debris filth that require colonists to clean up)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>파편과 핏자국 그래픽 효과가 사라지는 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Time until particles fade</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>출혈 속도에 기반한 피 흘리는 모션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Amount of bleeding particles (Animated bleeding based on pawn bleed rate)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -269,18 +253,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>투사체의 지면 충돌 모션 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번진 피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소가 필요한 오물로 전환되는 비율 (기본값: 15%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소가 필요한 탄피 생성 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파편과 핏자국 그래픽 효과가 사라지는 시간 (기본값: 10 seconds)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈 속도에 기반한 피 흘리는 모션 (기본값: 100%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격/타격 시에 파편이나 피가 튀는 모션 (기본값: 100%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ThingDef+Fuu_Filth_Blood_Fleshbeast.label</t>
-  </si>
-  <si>
-    <t>파편이나 피를 튀기는 모션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체의 지면 충돌 모션 활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>번진 피</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -692,87 +693,87 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -789,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -820,10 +821,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -837,10 +838,10 @@
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -854,10 +855,10 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,44 +872,44 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -925,7 +926,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
